--- a/reports/report_pendulum_horizontal.xlsx
+++ b/reports/report_pendulum_horizontal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Relative curvature avg</t>
   </si>
   <si>
-    <t xml:space="preserve">Distance from cam</t>
+    <t xml:space="preserve">Horizontal position</t>
   </si>
   <si>
     <t xml:space="preserve">res/pendulum_horizontal//Pendulum_horizontal.000014.obj</t>
@@ -669,13 +669,13 @@
   <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
